--- a/hans/df_receipt_table_cells.xlsx
+++ b/hans/df_receipt_table_cells.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7922" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7924" uniqueCount="994">
   <si>
     <t>资金类别</t>
   </si>
@@ -25797,7 +25797,7 @@
         <v>927</v>
       </c>
       <c r="L425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M425">
         <v>0</v>
@@ -45027,7 +45027,7 @@
         <v>927</v>
       </c>
       <c r="L791" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M791">
         <v>0</v>
@@ -63455,6 +63455,12 @@
       <c r="O1148" t="s">
         <v>935</v>
       </c>
+      <c r="P1148" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q1148" s="2">
+        <v>45098.24311498843</v>
+      </c>
     </row>
     <row r="1149" spans="1:17">
       <c r="A1149" t="s">
@@ -63501,6 +63507,12 @@
       </c>
       <c r="O1149" t="s">
         <v>935</v>
+      </c>
+      <c r="P1149" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q1149" s="2">
+        <v>45107.24337434028</v>
       </c>
     </row>
   </sheetData>
